--- a/players_stats/Patty Mills.xlsx
+++ b/players_stats/Patty Mills.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>20</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>1472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>209</v>
-      </c>
-      <c r="L2" t="n">
-        <v>398</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>208</v>
-      </c>
-      <c r="R2" t="n">
-        <v>395</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="U2" t="n">
-        <v>140</v>
-      </c>
-      <c r="V2" t="n">
-        <v>208</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.6729999999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>240</v>
-      </c>
       <c r="Z2" t="n">
-        <v>423</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>559</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -676,7 +676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1702</v>
+        <v>783</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="L3" t="n">
-        <v>502</v>
+        <v>328</v>
       </c>
       <c r="M3" t="n">
-        <v>0.504</v>
+        <v>0.412</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.353</v>
       </c>
       <c r="Q3" t="n">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="R3" t="n">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="S3" t="n">
-        <v>0.508</v>
+        <v>0.451</v>
       </c>
       <c r="T3" t="n">
-        <v>0.504</v>
+        <v>0.483</v>
       </c>
       <c r="U3" t="n">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="V3" t="n">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="W3" t="n">
-        <v>0.677</v>
+        <v>0.7659999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="AB3" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="n">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="n">
-        <v>661</v>
+        <v>353</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -800,7 +800,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>2290</v>
+        <v>261</v>
       </c>
       <c r="K4" t="n">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="L4" t="n">
-        <v>749</v>
+        <v>130</v>
       </c>
       <c r="M4" t="n">
-        <v>0.534</v>
+        <v>0.485</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
+        <v>56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39</v>
+      </c>
+      <c r="R4" t="n">
+        <v>74</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>400</v>
-      </c>
-      <c r="R4" t="n">
-        <v>745</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="U4" t="n">
-        <v>228</v>
-      </c>
-      <c r="V4" t="n">
-        <v>326</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.6990000000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>251</v>
-      </c>
       <c r="Y4" t="n">
-        <v>403</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>654</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>1028</v>
+        <v>165</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -924,7 +924,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2277</v>
+        <v>656</v>
       </c>
       <c r="K5" t="n">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="L5" t="n">
-        <v>716</v>
+        <v>241</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5379999999999999</v>
+        <v>0.469</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="O5" t="n">
+        <v>130</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>61</v>
+      </c>
+      <c r="R5" t="n">
+        <v>111</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5770000000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8420000000000001</v>
+      </c>
+      <c r="X5" t="n">
         <v>9</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>384</v>
-      </c>
-      <c r="R5" t="n">
-        <v>707</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5429999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.5379999999999999</v>
-      </c>
-      <c r="U5" t="n">
-        <v>183</v>
-      </c>
-      <c r="V5" t="n">
-        <v>264</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="X5" t="n">
-        <v>186</v>
-      </c>
       <c r="Y5" t="n">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>559</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="n">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>954</v>
+        <v>294</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1066,92 +1066,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2605</v>
+        <v>1527</v>
       </c>
       <c r="K6" t="n">
-        <v>525</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>988</v>
+        <v>666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.531</v>
+        <v>0.464</v>
       </c>
       <c r="N6" t="n">
+        <v>135</v>
+      </c>
+      <c r="O6" t="n">
+        <v>318</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>174</v>
+      </c>
+      <c r="R6" t="n">
+        <v>348</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>82</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>135</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>169</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>149</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9</v>
       </c>
-      <c r="O6" t="n">
-        <v>23</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>516</v>
-      </c>
-      <c r="R6" t="n">
-        <v>965</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="U6" t="n">
-        <v>256</v>
-      </c>
-      <c r="V6" t="n">
-        <v>338</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="X6" t="n">
-        <v>164</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>415</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>579</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>187</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>69</v>
-      </c>
       <c r="AD6" t="n">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="AE6" t="n">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="n">
-        <v>1315</v>
+        <v>826</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1190,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>801</v>
+      </c>
+      <c r="K7" t="n">
+        <v>128</v>
+      </c>
+      <c r="L7" t="n">
+        <v>336</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="N7" t="n">
         <v>62</v>
       </c>
-      <c r="J7" t="n">
-        <v>2100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>426</v>
-      </c>
-      <c r="L7" t="n">
-        <v>861</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
       <c r="O7" t="n">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="P7" t="n">
-        <v>0.226</v>
+        <v>0.341</v>
       </c>
       <c r="Q7" t="n">
-        <v>419</v>
+        <v>66</v>
       </c>
       <c r="R7" t="n">
-        <v>830</v>
+        <v>154</v>
       </c>
       <c r="S7" t="n">
-        <v>0.505</v>
+        <v>0.429</v>
       </c>
       <c r="T7" t="n">
-        <v>0.499</v>
+        <v>0.473</v>
       </c>
       <c r="U7" t="n">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="V7" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="W7" t="n">
-        <v>0.792</v>
+        <v>0.825</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="Z7" t="n">
-        <v>563</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="n">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="AF7" t="n">
-        <v>1061</v>
+        <v>351</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2012-13</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1314,92 +1314,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2375</v>
+        <v>1662</v>
       </c>
       <c r="K8" t="n">
-        <v>429</v>
+        <v>260</v>
       </c>
       <c r="L8" t="n">
-        <v>875</v>
+        <v>612</v>
       </c>
       <c r="M8" t="n">
-        <v>0.49</v>
+        <v>0.425</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="O8" t="n">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="P8" t="n">
-        <v>0.333</v>
+        <v>0.384</v>
       </c>
       <c r="Q8" t="n">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="R8" t="n">
-        <v>836</v>
+        <v>292</v>
       </c>
       <c r="S8" t="n">
-        <v>0.498</v>
+        <v>0.469</v>
       </c>
       <c r="T8" t="n">
-        <v>0.498</v>
+        <v>0.525</v>
       </c>
       <c r="U8" t="n">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="V8" t="n">
-        <v>356</v>
+        <v>58</v>
       </c>
       <c r="W8" t="n">
-        <v>0.742</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="Z8" t="n">
-        <v>554</v>
+        <v>158</v>
       </c>
       <c r="AA8" t="n">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="AB8" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="n">
         <v>102</v>
       </c>
-      <c r="AC8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>138</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>232</v>
-      </c>
       <c r="AF8" t="n">
-        <v>1135</v>
+        <v>690</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2013-14</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1438,92 +1438,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I9" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>2482</v>
+        <v>1754</v>
       </c>
       <c r="K9" t="n">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>1047</v>
+        <v>621</v>
       </c>
       <c r="M9" t="n">
-        <v>0.461</v>
+        <v>0.44</v>
       </c>
       <c r="N9" t="n">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="O9" t="n">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="P9" t="n">
-        <v>0.358</v>
+        <v>0.414</v>
       </c>
       <c r="Q9" t="n">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="R9" t="n">
-        <v>835</v>
+        <v>266</v>
       </c>
       <c r="S9" t="n">
-        <v>0.487</v>
+        <v>0.474</v>
       </c>
       <c r="T9" t="n">
-        <v>0.498</v>
+        <v>0.5579999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="V9" t="n">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="W9" t="n">
-        <v>0.731</v>
+        <v>0.825</v>
       </c>
       <c r="X9" t="n">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>473</v>
+        <v>117</v>
       </c>
       <c r="Z9" t="n">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="AA9" t="n">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="AC9" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="n">
-        <v>1328</v>
+        <v>759</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1562,92 +1562,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I10" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>2390</v>
+        <v>2107</v>
       </c>
       <c r="K10" t="n">
-        <v>443</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>930</v>
+        <v>682</v>
       </c>
       <c r="M10" t="n">
-        <v>0.476</v>
+        <v>0.411</v>
       </c>
       <c r="N10" t="n">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="O10" t="n">
-        <v>216</v>
+        <v>414</v>
       </c>
       <c r="P10" t="n">
-        <v>0.356</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="R10" t="n">
-        <v>714</v>
+        <v>268</v>
       </c>
       <c r="S10" t="n">
-        <v>0.513</v>
+        <v>0.47</v>
       </c>
       <c r="T10" t="n">
-        <v>0.518</v>
+        <v>0.523</v>
       </c>
       <c r="U10" t="n">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="V10" t="n">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="W10" t="n">
-        <v>0.757</v>
+        <v>0.89</v>
       </c>
       <c r="X10" t="n">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>431</v>
+        <v>128</v>
       </c>
       <c r="Z10" t="n">
-        <v>570</v>
+        <v>154</v>
       </c>
       <c r="AA10" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AB10" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="AE10" t="n">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="n">
-        <v>1218</v>
+        <v>819</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1686,92 +1686,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2647</v>
+        <v>1908</v>
       </c>
       <c r="K11" t="n">
-        <v>501</v>
+        <v>282</v>
       </c>
       <c r="L11" t="n">
-        <v>1066</v>
+        <v>663</v>
       </c>
       <c r="M11" t="n">
-        <v>0.47</v>
+        <v>0.425</v>
       </c>
       <c r="N11" t="n">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="O11" t="n">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="P11" t="n">
-        <v>0.319</v>
+        <v>0.394</v>
       </c>
       <c r="Q11" t="n">
-        <v>427</v>
+        <v>123</v>
       </c>
       <c r="R11" t="n">
-        <v>834</v>
+        <v>259</v>
       </c>
       <c r="S11" t="n">
-        <v>0.512</v>
+        <v>0.475</v>
       </c>
       <c r="T11" t="n">
-        <v>0.505</v>
+        <v>0.545</v>
       </c>
       <c r="U11" t="n">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="V11" t="n">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="W11" t="n">
-        <v>0.757</v>
+        <v>0.8540000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>534</v>
+        <v>158</v>
       </c>
       <c r="Z11" t="n">
-        <v>732</v>
+        <v>182</v>
       </c>
       <c r="AA11" t="n">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AB11" t="n">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="AC11" t="n">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="AE11" t="n">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="AF11" t="n">
-        <v>1385</v>
+        <v>811</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1810,92 +1810,92 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2343</v>
+        <v>326</v>
       </c>
       <c r="K12" t="n">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="L12" t="n">
-        <v>972</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
-        <v>0.442</v>
+        <v>0.478</v>
       </c>
       <c r="N12" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="O12" t="n">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
-        <v>0.311</v>
+        <v>0.425</v>
       </c>
       <c r="Q12" t="n">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="R12" t="n">
-        <v>731</v>
+        <v>61</v>
       </c>
       <c r="S12" t="n">
-        <v>0.486</v>
+        <v>0.541</v>
       </c>
       <c r="T12" t="n">
-        <v>0.481</v>
+        <v>0.593</v>
       </c>
       <c r="U12" t="n">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>405</v>
+        <v>28</v>
       </c>
       <c r="W12" t="n">
-        <v>0.768</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>422</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>1246</v>
+        <v>181</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1916,17 +1916,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>32</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1934,92 +1928,92 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J13" t="n">
-        <v>1143</v>
+        <v>11823</v>
       </c>
       <c r="K13" t="n">
-        <v>202</v>
+        <v>1917</v>
       </c>
       <c r="L13" t="n">
-        <v>435</v>
+        <v>4437</v>
       </c>
       <c r="M13" t="n">
-        <v>0.464</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>39</v>
+        <v>936</v>
       </c>
       <c r="O13" t="n">
-        <v>113</v>
+        <v>2389</v>
       </c>
       <c r="P13" t="n">
-        <v>0.345</v>
+        <v>0.392</v>
       </c>
       <c r="Q13" t="n">
-        <v>163</v>
+        <v>981</v>
       </c>
       <c r="R13" t="n">
-        <v>322</v>
+        <v>2048</v>
       </c>
       <c r="S13" t="n">
-        <v>0.506</v>
+        <v>0.479</v>
       </c>
       <c r="T13" t="n">
-        <v>0.509</v>
+        <v>0.5379999999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>112</v>
+        <v>505</v>
       </c>
       <c r="V13" t="n">
-        <v>161</v>
+        <v>597</v>
       </c>
       <c r="W13" t="n">
-        <v>0.696</v>
+        <v>0.846</v>
       </c>
       <c r="X13" t="n">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="Y13" t="n">
-        <v>180</v>
+        <v>837</v>
       </c>
       <c r="Z13" t="n">
-        <v>245</v>
+        <v>1030</v>
       </c>
       <c r="AA13" t="n">
-        <v>105</v>
+        <v>1461</v>
       </c>
       <c r="AB13" t="n">
-        <v>39</v>
+        <v>402</v>
       </c>
       <c r="AC13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AD13" t="n">
-        <v>73</v>
+        <v>624</v>
       </c>
       <c r="AE13" t="n">
-        <v>99</v>
+        <v>804</v>
       </c>
       <c r="AF13" t="n">
-        <v>555</v>
+        <v>5275</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 201</t>
+          <t xml:space="preserve"> 185</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 </t>
+          <t xml:space="preserve"> 81 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2028,373 +2022,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>33</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>70</v>
-      </c>
-      <c r="I14" t="n">
-        <v>65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1895</v>
-      </c>
-      <c r="K14" t="n">
-        <v>322</v>
-      </c>
-      <c r="L14" t="n">
-        <v>665</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="N14" t="n">
-        <v>58</v>
-      </c>
-      <c r="O14" t="n">
-        <v>159</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>264</v>
-      </c>
-      <c r="R14" t="n">
-        <v>506</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="U14" t="n">
-        <v>181</v>
-      </c>
-      <c r="V14" t="n">
-        <v>249</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="X14" t="n">
-        <v>153</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>352</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>505</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>141</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>83</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>54</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>183</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>883</v>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 201</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 113 </t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ14" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>34</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>239</v>
-      </c>
-      <c r="K15" t="n">
-        <v>34</v>
-      </c>
-      <c r="L15" t="n">
-        <v>78</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>23</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>23</v>
-      </c>
-      <c r="R15" t="n">
         <v>55</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="U15" t="n">
-        <v>30</v>
-      </c>
-      <c r="V15" t="n">
-        <v>31</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>109</v>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 201</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 113 </t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ15" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>954</v>
-      </c>
-      <c r="I16" t="n">
-        <v>670</v>
-      </c>
-      <c r="J16" t="n">
-        <v>27960</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5042</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10282</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N16" t="n">
-        <v>441</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1309</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4601</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8973</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2912</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3958</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2142</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4917</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7059</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2179</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1228</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>973</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1699</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2946</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13437</v>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 201</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 113 </t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ16" t="n">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
